--- a/export/files/excel/J71E.xlsx
+++ b/export/files/excel/J71E.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\QC_Han\export\files\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEF9B2E-FF64-4940-AB01-B08C4FBE8DE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72435365-3C3A-453C-9B60-CABA5A71F266}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="653" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="MẶT TRƯỚC" sheetId="4" r:id="rId1"/>
     <sheet name="MẶT SAU" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1663,21 +1663,24 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1696,6 +1699,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1726,9 +1750,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1741,9 +1762,6 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1798,21 +1816,6 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1827,9 +1830,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1945,532 +1945,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="127782" name="Group 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C1B11F6-1584-4647-A4A7-1EDDA8C71B1D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2240280" y="3566160"/>
-          <a:ext cx="449580" cy="3101340"/>
-          <a:chOff x="2322634" y="3639372"/>
-          <a:chExt cx="417635" cy="3291897"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="119" name="Double Bracket 118">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BCC8C7C-8AAC-4254-B541-E27A893EA03F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="2322634" y="3760695"/>
-            <a:ext cx="417635" cy="3170574"/>
-          </a:xfrm>
-          <a:prstGeom prst="bracketPair">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:headEnd type="none" w="med" len="med"/>
-            <a:tailEnd type="none" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="120" name="Isosceles Triangle 119">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20CEDE44-EF61-41DA-9C43-85BC1616B50C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="2428812" y="3639372"/>
-            <a:ext cx="205278" cy="161764"/>
-          </a:xfrm>
-          <a:prstGeom prst="triangle">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg2"/>
-          </a:solidFill>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="800">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>2</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="127783" name="Group 137">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B2C5C29-3039-421A-8FEA-E7844B00A3CF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5532120" y="3550920"/>
-          <a:ext cx="449580" cy="2110740"/>
-          <a:chOff x="2322634" y="3567607"/>
-          <a:chExt cx="417635" cy="3363662"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="122" name="Double Bracket 121">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69C5E73F-A6E9-4281-8C7E-3F7D911DDA5F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="2322634" y="3761898"/>
-            <a:ext cx="417635" cy="3169371"/>
-          </a:xfrm>
-          <a:prstGeom prst="bracketPair">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:headEnd type="none" w="med" len="med"/>
-            <a:tailEnd type="none" w="med" len="med"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="123" name="Isosceles Triangle 122">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C89D206-2BA5-45C1-A311-B6A7FA5C43B8}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="2421734" y="3567607"/>
-            <a:ext cx="219435" cy="303580"/>
-          </a:xfrm>
-          <a:prstGeom prst="triangle">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg2"/>
-          </a:solidFill>
-          <a:ln w="6350">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="800">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>2</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>7327</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>7034</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>51288</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>110222</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="124" name="Rectangle 123">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24CEA3B6-C467-4F79-B5ED-9ECE8CADB7BE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4220308" y="5334000"/>
-          <a:ext cx="161192" cy="95250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>*</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>5861</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>35169</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>93784</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>123092</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="125" name="Rectangle 124">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{043720CE-23C4-4B46-BE93-8E49250DEC3D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4336073" y="5185996"/>
-          <a:ext cx="161192" cy="95250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>*</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>4396</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>41031</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>92319</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>128954</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="126" name="Rectangle 125">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B228994C-3D02-4778-BF70-98831B889977}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4334608" y="4854819"/>
-          <a:ext cx="161192" cy="95250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>*</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2615,6 +2089,50 @@
             </a14:hiddenLine>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>145105</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>20083</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD3A7394-862A-4EB6-953F-042B99A88E2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2225040" y="3558540"/>
+          <a:ext cx="3749365" cy="3121423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2988,8 +2506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BP123" sqref="BP123"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BG33" sqref="BG33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -3041,38 +2559,38 @@
       <c r="D1" s="50"/>
       <c r="E1" s="50"/>
       <c r="F1" s="31"/>
-      <c r="G1" s="168" t="s">
+      <c r="G1" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="168"/>
-      <c r="P1" s="168"/>
-      <c r="Q1" s="168"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="168"/>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="168"/>
-      <c r="AA1" s="168"/>
-      <c r="AB1" s="168"/>
-      <c r="AC1" s="168"/>
-      <c r="AD1" s="168"/>
-      <c r="AE1" s="168"/>
-      <c r="AF1" s="168"/>
-      <c r="AG1" s="168"/>
-      <c r="AH1" s="168"/>
-      <c r="AI1" s="168"/>
-      <c r="AJ1" s="171" t="s">
+      <c r="H1" s="174"/>
+      <c r="I1" s="174"/>
+      <c r="J1" s="174"/>
+      <c r="K1" s="174"/>
+      <c r="L1" s="174"/>
+      <c r="M1" s="174"/>
+      <c r="N1" s="174"/>
+      <c r="O1" s="174"/>
+      <c r="P1" s="174"/>
+      <c r="Q1" s="174"/>
+      <c r="R1" s="174"/>
+      <c r="S1" s="174"/>
+      <c r="T1" s="174"/>
+      <c r="U1" s="174"/>
+      <c r="V1" s="174"/>
+      <c r="W1" s="174"/>
+      <c r="X1" s="174"/>
+      <c r="Y1" s="174"/>
+      <c r="Z1" s="174"/>
+      <c r="AA1" s="174"/>
+      <c r="AB1" s="174"/>
+      <c r="AC1" s="174"/>
+      <c r="AD1" s="174"/>
+      <c r="AE1" s="174"/>
+      <c r="AF1" s="174"/>
+      <c r="AG1" s="174"/>
+      <c r="AH1" s="174"/>
+      <c r="AI1" s="174"/>
+      <c r="AJ1" s="177" t="s">
         <v>130</v>
       </c>
       <c r="AK1" s="18"/>
@@ -3090,43 +2608,43 @@
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
       <c r="F2" s="53"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="169"/>
-      <c r="O2" s="169"/>
-      <c r="P2" s="169"/>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="169"/>
-      <c r="S2" s="169"/>
-      <c r="T2" s="169"/>
-      <c r="U2" s="169"/>
-      <c r="V2" s="169"/>
-      <c r="W2" s="169"/>
-      <c r="X2" s="169"/>
-      <c r="Y2" s="169"/>
-      <c r="Z2" s="169"/>
-      <c r="AA2" s="169"/>
-      <c r="AB2" s="169"/>
-      <c r="AC2" s="169"/>
-      <c r="AD2" s="169"/>
-      <c r="AE2" s="169"/>
-      <c r="AF2" s="169"/>
-      <c r="AG2" s="169"/>
-      <c r="AH2" s="169"/>
-      <c r="AI2" s="169"/>
-      <c r="AJ2" s="172"/>
-      <c r="AK2" s="172"/>
-      <c r="AL2" s="172"/>
-      <c r="AM2" s="172"/>
-      <c r="AN2" s="172"/>
-      <c r="AO2" s="172"/>
-      <c r="AP2" s="172"/>
-      <c r="AQ2" s="172"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="175"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="175"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="175"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="175"/>
+      <c r="V2" s="175"/>
+      <c r="W2" s="175"/>
+      <c r="X2" s="175"/>
+      <c r="Y2" s="175"/>
+      <c r="Z2" s="175"/>
+      <c r="AA2" s="175"/>
+      <c r="AB2" s="175"/>
+      <c r="AC2" s="175"/>
+      <c r="AD2" s="175"/>
+      <c r="AE2" s="175"/>
+      <c r="AF2" s="175"/>
+      <c r="AG2" s="175"/>
+      <c r="AH2" s="175"/>
+      <c r="AI2" s="175"/>
+      <c r="AJ2" s="178"/>
+      <c r="AK2" s="178"/>
+      <c r="AL2" s="178"/>
+      <c r="AM2" s="178"/>
+      <c r="AN2" s="178"/>
+      <c r="AO2" s="178"/>
+      <c r="AP2" s="178"/>
+      <c r="AQ2" s="178"/>
     </row>
     <row r="3" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="32"/>
@@ -3135,35 +2653,35 @@
       <c r="D3" s="54"/>
       <c r="E3" s="54"/>
       <c r="F3" s="33"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="170"/>
-      <c r="T3" s="170"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="170"/>
-      <c r="W3" s="170"/>
-      <c r="X3" s="170"/>
-      <c r="Y3" s="170"/>
-      <c r="Z3" s="170"/>
-      <c r="AA3" s="170"/>
-      <c r="AB3" s="170"/>
-      <c r="AC3" s="170"/>
-      <c r="AD3" s="170"/>
-      <c r="AE3" s="170"/>
-      <c r="AF3" s="170"/>
-      <c r="AG3" s="170"/>
-      <c r="AH3" s="170"/>
-      <c r="AI3" s="170"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="176"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="176"/>
+      <c r="O3" s="176"/>
+      <c r="P3" s="176"/>
+      <c r="Q3" s="176"/>
+      <c r="R3" s="176"/>
+      <c r="S3" s="176"/>
+      <c r="T3" s="176"/>
+      <c r="U3" s="176"/>
+      <c r="V3" s="176"/>
+      <c r="W3" s="176"/>
+      <c r="X3" s="176"/>
+      <c r="Y3" s="176"/>
+      <c r="Z3" s="176"/>
+      <c r="AA3" s="176"/>
+      <c r="AB3" s="176"/>
+      <c r="AC3" s="176"/>
+      <c r="AD3" s="176"/>
+      <c r="AE3" s="176"/>
+      <c r="AF3" s="176"/>
+      <c r="AG3" s="176"/>
+      <c r="AH3" s="176"/>
+      <c r="AI3" s="176"/>
       <c r="AJ3" s="19"/>
       <c r="AK3" s="19"/>
       <c r="AL3" s="19"/>
@@ -3211,18 +2729,18 @@
       <c r="AG4" s="95"/>
       <c r="AH4" s="95"/>
       <c r="AI4" s="96"/>
-      <c r="AJ4" s="183" t="s">
+      <c r="AJ4" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="AK4" s="183"/>
-      <c r="AL4" s="183"/>
-      <c r="AM4" s="183"/>
-      <c r="AN4" s="174" t="s">
+      <c r="AK4" s="189"/>
+      <c r="AL4" s="189"/>
+      <c r="AM4" s="189"/>
+      <c r="AN4" s="180" t="s">
         <v>122</v>
       </c>
-      <c r="AO4" s="174"/>
-      <c r="AP4" s="174"/>
-      <c r="AQ4" s="174"/>
+      <c r="AO4" s="180"/>
+      <c r="AP4" s="180"/>
+      <c r="AQ4" s="180"/>
     </row>
     <row r="5" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="97"/>
@@ -3260,14 +2778,14 @@
       <c r="AG5" s="98"/>
       <c r="AH5" s="98"/>
       <c r="AI5" s="99"/>
-      <c r="AJ5" s="183"/>
-      <c r="AK5" s="183"/>
-      <c r="AL5" s="183"/>
-      <c r="AM5" s="183"/>
-      <c r="AN5" s="174"/>
-      <c r="AO5" s="174"/>
-      <c r="AP5" s="174"/>
-      <c r="AQ5" s="174"/>
+      <c r="AJ5" s="189"/>
+      <c r="AK5" s="189"/>
+      <c r="AL5" s="189"/>
+      <c r="AM5" s="189"/>
+      <c r="AN5" s="180"/>
+      <c r="AO5" s="180"/>
+      <c r="AP5" s="180"/>
+      <c r="AQ5" s="180"/>
     </row>
     <row r="6" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="97"/>
@@ -3305,209 +2823,209 @@
       <c r="AG6" s="98"/>
       <c r="AH6" s="98"/>
       <c r="AI6" s="99"/>
-      <c r="AJ6" s="183"/>
-      <c r="AK6" s="183"/>
-      <c r="AL6" s="183"/>
-      <c r="AM6" s="183"/>
-      <c r="AN6" s="174"/>
-      <c r="AO6" s="174"/>
-      <c r="AP6" s="174"/>
-      <c r="AQ6" s="174"/>
+      <c r="AJ6" s="189"/>
+      <c r="AK6" s="189"/>
+      <c r="AL6" s="189"/>
+      <c r="AM6" s="189"/>
+      <c r="AN6" s="180"/>
+      <c r="AO6" s="180"/>
+      <c r="AP6" s="180"/>
+      <c r="AQ6" s="180"/>
     </row>
     <row r="7" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="175" t="s">
+      <c r="A7" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="175"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="175"/>
-      <c r="F7" s="175"/>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="175"/>
-      <c r="J7" s="175"/>
-      <c r="K7" s="175" t="s">
+      <c r="B7" s="181"/>
+      <c r="C7" s="181"/>
+      <c r="D7" s="181"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="181"/>
+      <c r="H7" s="181"/>
+      <c r="I7" s="181"/>
+      <c r="J7" s="181"/>
+      <c r="K7" s="181" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="175"/>
-      <c r="M7" s="175"/>
-      <c r="N7" s="175"/>
-      <c r="O7" s="175"/>
-      <c r="P7" s="175"/>
-      <c r="Q7" s="175"/>
-      <c r="R7" s="175"/>
-      <c r="S7" s="175"/>
-      <c r="T7" s="175"/>
-      <c r="U7" s="175"/>
-      <c r="V7" s="173" t="s">
+      <c r="L7" s="181"/>
+      <c r="M7" s="181"/>
+      <c r="N7" s="181"/>
+      <c r="O7" s="181"/>
+      <c r="P7" s="181"/>
+      <c r="Q7" s="181"/>
+      <c r="R7" s="181"/>
+      <c r="S7" s="181"/>
+      <c r="T7" s="181"/>
+      <c r="U7" s="181"/>
+      <c r="V7" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="W7" s="173"/>
-      <c r="X7" s="173"/>
-      <c r="Y7" s="173"/>
-      <c r="Z7" s="173"/>
-      <c r="AA7" s="173"/>
-      <c r="AB7" s="173"/>
-      <c r="AC7" s="173"/>
-      <c r="AD7" s="173"/>
-      <c r="AE7" s="173"/>
-      <c r="AF7" s="173"/>
-      <c r="AG7" s="173"/>
-      <c r="AH7" s="173"/>
-      <c r="AI7" s="173"/>
-      <c r="AJ7" s="183"/>
-      <c r="AK7" s="183"/>
-      <c r="AL7" s="183"/>
-      <c r="AM7" s="183"/>
-      <c r="AN7" s="174"/>
-      <c r="AO7" s="174"/>
-      <c r="AP7" s="174"/>
-      <c r="AQ7" s="174"/>
+      <c r="W7" s="179"/>
+      <c r="X7" s="179"/>
+      <c r="Y7" s="179"/>
+      <c r="Z7" s="179"/>
+      <c r="AA7" s="179"/>
+      <c r="AB7" s="179"/>
+      <c r="AC7" s="179"/>
+      <c r="AD7" s="179"/>
+      <c r="AE7" s="179"/>
+      <c r="AF7" s="179"/>
+      <c r="AG7" s="179"/>
+      <c r="AH7" s="179"/>
+      <c r="AI7" s="179"/>
+      <c r="AJ7" s="189"/>
+      <c r="AK7" s="189"/>
+      <c r="AL7" s="189"/>
+      <c r="AM7" s="189"/>
+      <c r="AN7" s="180"/>
+      <c r="AO7" s="180"/>
+      <c r="AP7" s="180"/>
+      <c r="AQ7" s="180"/>
     </row>
     <row r="8" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="176"/>
-      <c r="B8" s="176"/>
-      <c r="C8" s="176"/>
-      <c r="D8" s="176"/>
-      <c r="E8" s="176"/>
-      <c r="F8" s="176"/>
-      <c r="G8" s="176"/>
-      <c r="H8" s="176"/>
-      <c r="I8" s="176"/>
-      <c r="J8" s="176"/>
-      <c r="K8" s="176"/>
-      <c r="L8" s="176"/>
-      <c r="M8" s="176"/>
-      <c r="N8" s="176"/>
-      <c r="O8" s="176"/>
-      <c r="P8" s="176"/>
-      <c r="Q8" s="176"/>
-      <c r="R8" s="176"/>
-      <c r="S8" s="176"/>
-      <c r="T8" s="176"/>
-      <c r="U8" s="176"/>
-      <c r="V8" s="173"/>
-      <c r="W8" s="173"/>
-      <c r="X8" s="173"/>
-      <c r="Y8" s="173"/>
-      <c r="Z8" s="173"/>
-      <c r="AA8" s="173"/>
-      <c r="AB8" s="173"/>
-      <c r="AC8" s="173"/>
-      <c r="AD8" s="173"/>
-      <c r="AE8" s="173"/>
-      <c r="AF8" s="173"/>
-      <c r="AG8" s="173"/>
-      <c r="AH8" s="173"/>
-      <c r="AI8" s="173"/>
-      <c r="AJ8" s="183"/>
-      <c r="AK8" s="183"/>
-      <c r="AL8" s="183"/>
-      <c r="AM8" s="183"/>
-      <c r="AN8" s="174"/>
-      <c r="AO8" s="174"/>
-      <c r="AP8" s="174"/>
-      <c r="AQ8" s="174"/>
+      <c r="A8" s="182"/>
+      <c r="B8" s="182"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="182"/>
+      <c r="H8" s="182"/>
+      <c r="I8" s="182"/>
+      <c r="J8" s="182"/>
+      <c r="K8" s="182"/>
+      <c r="L8" s="182"/>
+      <c r="M8" s="182"/>
+      <c r="N8" s="182"/>
+      <c r="O8" s="182"/>
+      <c r="P8" s="182"/>
+      <c r="Q8" s="182"/>
+      <c r="R8" s="182"/>
+      <c r="S8" s="182"/>
+      <c r="T8" s="182"/>
+      <c r="U8" s="182"/>
+      <c r="V8" s="179"/>
+      <c r="W8" s="179"/>
+      <c r="X8" s="179"/>
+      <c r="Y8" s="179"/>
+      <c r="Z8" s="179"/>
+      <c r="AA8" s="179"/>
+      <c r="AB8" s="179"/>
+      <c r="AC8" s="179"/>
+      <c r="AD8" s="179"/>
+      <c r="AE8" s="179"/>
+      <c r="AF8" s="179"/>
+      <c r="AG8" s="179"/>
+      <c r="AH8" s="179"/>
+      <c r="AI8" s="179"/>
+      <c r="AJ8" s="189"/>
+      <c r="AK8" s="189"/>
+      <c r="AL8" s="189"/>
+      <c r="AM8" s="189"/>
+      <c r="AN8" s="180"/>
+      <c r="AO8" s="180"/>
+      <c r="AP8" s="180"/>
+      <c r="AQ8" s="180"/>
     </row>
     <row r="9" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="177" t="s">
+      <c r="A9" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="178"/>
-      <c r="E9" s="178"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="178"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="178"/>
-      <c r="J9" s="178"/>
-      <c r="K9" s="178"/>
-      <c r="L9" s="179"/>
-      <c r="M9" s="178" t="s">
+      <c r="B9" s="184"/>
+      <c r="C9" s="184"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="184"/>
+      <c r="G9" s="184"/>
+      <c r="H9" s="184"/>
+      <c r="I9" s="184"/>
+      <c r="J9" s="184"/>
+      <c r="K9" s="184"/>
+      <c r="L9" s="185"/>
+      <c r="M9" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="N9" s="178"/>
-      <c r="O9" s="178"/>
-      <c r="P9" s="178"/>
-      <c r="Q9" s="178"/>
-      <c r="R9" s="178"/>
-      <c r="S9" s="178"/>
-      <c r="T9" s="178"/>
-      <c r="U9" s="179"/>
-      <c r="V9" s="173" t="s">
+      <c r="N9" s="184"/>
+      <c r="O9" s="184"/>
+      <c r="P9" s="184"/>
+      <c r="Q9" s="184"/>
+      <c r="R9" s="184"/>
+      <c r="S9" s="184"/>
+      <c r="T9" s="184"/>
+      <c r="U9" s="185"/>
+      <c r="V9" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="W9" s="173"/>
-      <c r="X9" s="173"/>
-      <c r="Y9" s="173"/>
-      <c r="Z9" s="173"/>
-      <c r="AA9" s="173"/>
-      <c r="AB9" s="173"/>
-      <c r="AC9" s="173"/>
-      <c r="AD9" s="173"/>
-      <c r="AE9" s="173"/>
-      <c r="AF9" s="173"/>
-      <c r="AG9" s="173"/>
-      <c r="AH9" s="173"/>
-      <c r="AI9" s="173"/>
-      <c r="AJ9" s="183"/>
-      <c r="AK9" s="183"/>
-      <c r="AL9" s="183"/>
-      <c r="AM9" s="183"/>
-      <c r="AN9" s="174"/>
-      <c r="AO9" s="174"/>
-      <c r="AP9" s="174"/>
-      <c r="AQ9" s="174"/>
+      <c r="W9" s="179"/>
+      <c r="X9" s="179"/>
+      <c r="Y9" s="179"/>
+      <c r="Z9" s="179"/>
+      <c r="AA9" s="179"/>
+      <c r="AB9" s="179"/>
+      <c r="AC9" s="179"/>
+      <c r="AD9" s="179"/>
+      <c r="AE9" s="179"/>
+      <c r="AF9" s="179"/>
+      <c r="AG9" s="179"/>
+      <c r="AH9" s="179"/>
+      <c r="AI9" s="179"/>
+      <c r="AJ9" s="189"/>
+      <c r="AK9" s="189"/>
+      <c r="AL9" s="189"/>
+      <c r="AM9" s="189"/>
+      <c r="AN9" s="180"/>
+      <c r="AO9" s="180"/>
+      <c r="AP9" s="180"/>
+      <c r="AQ9" s="180"/>
     </row>
     <row r="10" spans="1:43" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="180"/>
-      <c r="B10" s="181"/>
-      <c r="C10" s="181"/>
-      <c r="D10" s="181"/>
-      <c r="E10" s="181"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="181"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="181"/>
-      <c r="K10" s="181"/>
-      <c r="L10" s="182"/>
-      <c r="M10" s="181"/>
-      <c r="N10" s="181"/>
-      <c r="O10" s="181"/>
-      <c r="P10" s="181"/>
-      <c r="Q10" s="181"/>
-      <c r="R10" s="181"/>
-      <c r="S10" s="181"/>
-      <c r="T10" s="181"/>
-      <c r="U10" s="182"/>
-      <c r="V10" s="173"/>
-      <c r="W10" s="173"/>
-      <c r="X10" s="173"/>
-      <c r="Y10" s="173"/>
-      <c r="Z10" s="173"/>
-      <c r="AA10" s="173"/>
-      <c r="AB10" s="173"/>
-      <c r="AC10" s="173"/>
-      <c r="AD10" s="173"/>
-      <c r="AE10" s="173"/>
-      <c r="AF10" s="173"/>
-      <c r="AG10" s="173"/>
-      <c r="AH10" s="173"/>
-      <c r="AI10" s="173"/>
-      <c r="AJ10" s="183"/>
-      <c r="AK10" s="183"/>
-      <c r="AL10" s="183"/>
-      <c r="AM10" s="183"/>
-      <c r="AN10" s="174"/>
-      <c r="AO10" s="174"/>
-      <c r="AP10" s="174"/>
-      <c r="AQ10" s="174"/>
+      <c r="A10" s="186"/>
+      <c r="B10" s="187"/>
+      <c r="C10" s="187"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="187"/>
+      <c r="H10" s="187"/>
+      <c r="I10" s="187"/>
+      <c r="J10" s="187"/>
+      <c r="K10" s="187"/>
+      <c r="L10" s="188"/>
+      <c r="M10" s="187"/>
+      <c r="N10" s="187"/>
+      <c r="O10" s="187"/>
+      <c r="P10" s="187"/>
+      <c r="Q10" s="187"/>
+      <c r="R10" s="187"/>
+      <c r="S10" s="187"/>
+      <c r="T10" s="187"/>
+      <c r="U10" s="188"/>
+      <c r="V10" s="179"/>
+      <c r="W10" s="179"/>
+      <c r="X10" s="179"/>
+      <c r="Y10" s="179"/>
+      <c r="Z10" s="179"/>
+      <c r="AA10" s="179"/>
+      <c r="AB10" s="179"/>
+      <c r="AC10" s="179"/>
+      <c r="AD10" s="179"/>
+      <c r="AE10" s="179"/>
+      <c r="AF10" s="179"/>
+      <c r="AG10" s="179"/>
+      <c r="AH10" s="179"/>
+      <c r="AI10" s="179"/>
+      <c r="AJ10" s="189"/>
+      <c r="AK10" s="189"/>
+      <c r="AL10" s="189"/>
+      <c r="AM10" s="189"/>
+      <c r="AN10" s="180"/>
+      <c r="AO10" s="180"/>
+      <c r="AP10" s="180"/>
+      <c r="AQ10" s="180"/>
     </row>
     <row r="11" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="161" t="s">
+      <c r="A11" s="168" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="79"/>
@@ -4231,15 +3749,15 @@
       </c>
       <c r="I26" s="108"/>
       <c r="J26" s="109"/>
-      <c r="K26" s="141" t="s">
+      <c r="K26" s="140" t="s">
         <v>87</v>
       </c>
-      <c r="L26" s="142"/>
-      <c r="M26" s="142"/>
-      <c r="N26" s="141" t="s">
+      <c r="L26" s="144"/>
+      <c r="M26" s="144"/>
+      <c r="N26" s="140" t="s">
         <v>119</v>
       </c>
-      <c r="O26" s="143"/>
+      <c r="O26" s="141"/>
       <c r="P26" s="107"/>
       <c r="Q26" s="108"/>
       <c r="R26" s="109"/>
@@ -4262,15 +3780,15 @@
       </c>
       <c r="AE26" s="41"/>
       <c r="AF26" s="41"/>
-      <c r="AG26" s="141" t="s">
+      <c r="AG26" s="140" t="s">
         <v>87</v>
       </c>
-      <c r="AH26" s="143"/>
-      <c r="AI26" s="142" t="s">
+      <c r="AH26" s="141"/>
+      <c r="AI26" s="144" t="s">
         <v>86</v>
       </c>
-      <c r="AJ26" s="142"/>
-      <c r="AK26" s="143"/>
+      <c r="AJ26" s="144"/>
+      <c r="AK26" s="141"/>
       <c r="AL26" s="41"/>
       <c r="AM26" s="41"/>
       <c r="AN26" s="41"/>
@@ -4291,15 +3809,15 @@
       </c>
       <c r="I27" s="108"/>
       <c r="J27" s="109"/>
-      <c r="K27" s="141" t="s">
+      <c r="K27" s="140" t="s">
         <v>102</v>
       </c>
-      <c r="L27" s="142"/>
-      <c r="M27" s="143"/>
-      <c r="N27" s="142" t="s">
+      <c r="L27" s="144"/>
+      <c r="M27" s="141"/>
+      <c r="N27" s="144" t="s">
         <v>121</v>
       </c>
-      <c r="O27" s="143"/>
+      <c r="O27" s="141"/>
       <c r="P27" s="107"/>
       <c r="Q27" s="108"/>
       <c r="R27" s="109"/>
@@ -4318,15 +3836,15 @@
       </c>
       <c r="AE27" s="41"/>
       <c r="AF27" s="41"/>
-      <c r="AG27" s="141" t="s">
+      <c r="AG27" s="140" t="s">
         <v>89</v>
       </c>
-      <c r="AH27" s="143"/>
-      <c r="AI27" s="142" t="s">
+      <c r="AH27" s="141"/>
+      <c r="AI27" s="144" t="s">
         <v>88</v>
       </c>
-      <c r="AJ27" s="142"/>
-      <c r="AK27" s="143"/>
+      <c r="AJ27" s="144"/>
+      <c r="AK27" s="141"/>
       <c r="AL27" s="41"/>
       <c r="AM27" s="41"/>
       <c r="AN27" s="41"/>
@@ -4349,15 +3867,15 @@
       </c>
       <c r="I28" s="108"/>
       <c r="J28" s="109"/>
-      <c r="K28" s="141" t="s">
+      <c r="K28" s="140" t="s">
         <v>103</v>
       </c>
-      <c r="L28" s="142"/>
-      <c r="M28" s="143"/>
-      <c r="N28" s="142" t="s">
+      <c r="L28" s="144"/>
+      <c r="M28" s="141"/>
+      <c r="N28" s="144" t="s">
         <v>120</v>
       </c>
-      <c r="O28" s="143"/>
+      <c r="O28" s="141"/>
       <c r="P28" s="107"/>
       <c r="Q28" s="108"/>
       <c r="R28" s="109"/>
@@ -4380,15 +3898,15 @@
       </c>
       <c r="AE28" s="41"/>
       <c r="AF28" s="41"/>
-      <c r="AG28" s="141" t="s">
+      <c r="AG28" s="140" t="s">
         <v>91</v>
       </c>
-      <c r="AH28" s="143"/>
-      <c r="AI28" s="142" t="s">
+      <c r="AH28" s="141"/>
+      <c r="AI28" s="144" t="s">
         <v>90</v>
       </c>
-      <c r="AJ28" s="142"/>
-      <c r="AK28" s="143"/>
+      <c r="AJ28" s="144"/>
+      <c r="AK28" s="141"/>
       <c r="AL28" s="41"/>
       <c r="AM28" s="41"/>
       <c r="AN28" s="41"/>
@@ -4409,15 +3927,15 @@
       </c>
       <c r="I29" s="108"/>
       <c r="J29" s="109"/>
-      <c r="K29" s="141" t="s">
+      <c r="K29" s="140" t="s">
         <v>104</v>
       </c>
-      <c r="L29" s="142"/>
-      <c r="M29" s="143"/>
-      <c r="N29" s="142" t="s">
+      <c r="L29" s="144"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="144" t="s">
         <v>120</v>
       </c>
-      <c r="O29" s="143"/>
+      <c r="O29" s="141"/>
       <c r="P29" s="107"/>
       <c r="Q29" s="108"/>
       <c r="R29" s="109"/>
@@ -4436,15 +3954,15 @@
       </c>
       <c r="AE29" s="41"/>
       <c r="AF29" s="41"/>
-      <c r="AG29" s="141" t="s">
+      <c r="AG29" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="AH29" s="143"/>
-      <c r="AI29" s="142" t="s">
+      <c r="AH29" s="141"/>
+      <c r="AI29" s="144" t="s">
         <v>92</v>
       </c>
-      <c r="AJ29" s="142"/>
-      <c r="AK29" s="143"/>
+      <c r="AJ29" s="144"/>
+      <c r="AK29" s="141"/>
       <c r="AL29" s="41"/>
       <c r="AM29" s="41"/>
       <c r="AN29" s="41"/>
@@ -4467,15 +3985,15 @@
       </c>
       <c r="I30" s="108"/>
       <c r="J30" s="109"/>
-      <c r="K30" s="141" t="s">
+      <c r="K30" s="140" t="s">
         <v>103</v>
       </c>
-      <c r="L30" s="142"/>
-      <c r="M30" s="143"/>
-      <c r="N30" s="142" t="s">
+      <c r="L30" s="144"/>
+      <c r="M30" s="141"/>
+      <c r="N30" s="144" t="s">
         <v>120</v>
       </c>
-      <c r="O30" s="143"/>
+      <c r="O30" s="141"/>
       <c r="P30" s="107"/>
       <c r="Q30" s="108"/>
       <c r="R30" s="109"/>
@@ -4496,15 +4014,15 @@
       </c>
       <c r="AE30" s="41"/>
       <c r="AF30" s="41"/>
-      <c r="AG30" s="141" t="s">
+      <c r="AG30" s="140" t="s">
         <v>95</v>
       </c>
-      <c r="AH30" s="143"/>
-      <c r="AI30" s="142" t="s">
+      <c r="AH30" s="141"/>
+      <c r="AI30" s="144" t="s">
         <v>94</v>
       </c>
-      <c r="AJ30" s="142"/>
-      <c r="AK30" s="143"/>
+      <c r="AJ30" s="144"/>
+      <c r="AK30" s="141"/>
       <c r="AL30" s="41"/>
       <c r="AM30" s="41"/>
       <c r="AN30" s="41"/>
@@ -4525,15 +4043,15 @@
       </c>
       <c r="I31" s="108"/>
       <c r="J31" s="109"/>
-      <c r="K31" s="141" t="s">
+      <c r="K31" s="140" t="s">
         <v>105</v>
       </c>
-      <c r="L31" s="142"/>
-      <c r="M31" s="143"/>
-      <c r="N31" s="142" t="s">
+      <c r="L31" s="144"/>
+      <c r="M31" s="141"/>
+      <c r="N31" s="144" t="s">
         <v>115</v>
       </c>
-      <c r="O31" s="143"/>
+      <c r="O31" s="141"/>
       <c r="P31" s="107"/>
       <c r="Q31" s="108"/>
       <c r="R31" s="109"/>
@@ -4552,15 +4070,15 @@
       </c>
       <c r="AE31" s="41"/>
       <c r="AF31" s="41"/>
-      <c r="AG31" s="141" t="s">
+      <c r="AG31" s="140" t="s">
         <v>96</v>
       </c>
-      <c r="AH31" s="143"/>
-      <c r="AI31" s="142" t="s">
+      <c r="AH31" s="141"/>
+      <c r="AI31" s="144" t="s">
         <v>97</v>
       </c>
-      <c r="AJ31" s="142"/>
-      <c r="AK31" s="143"/>
+      <c r="AJ31" s="144"/>
+      <c r="AK31" s="141"/>
       <c r="AL31" s="41"/>
       <c r="AM31" s="41"/>
       <c r="AN31" s="41"/>
@@ -4585,15 +4103,15 @@
       </c>
       <c r="I32" s="108"/>
       <c r="J32" s="109"/>
-      <c r="K32" s="141" t="s">
+      <c r="K32" s="140" t="s">
         <v>87</v>
       </c>
-      <c r="L32" s="142"/>
-      <c r="M32" s="143"/>
-      <c r="N32" s="142" t="s">
+      <c r="L32" s="144"/>
+      <c r="M32" s="141"/>
+      <c r="N32" s="144" t="s">
         <v>119</v>
       </c>
-      <c r="O32" s="143"/>
+      <c r="O32" s="141"/>
       <c r="P32" s="107"/>
       <c r="Q32" s="108"/>
       <c r="R32" s="109"/>
@@ -4616,15 +4134,15 @@
       </c>
       <c r="AE32" s="41"/>
       <c r="AF32" s="41"/>
-      <c r="AG32" s="141" t="s">
+      <c r="AG32" s="140" t="s">
         <v>99</v>
       </c>
-      <c r="AH32" s="143"/>
-      <c r="AI32" s="142" t="s">
+      <c r="AH32" s="141"/>
+      <c r="AI32" s="144" t="s">
         <v>98</v>
       </c>
-      <c r="AJ32" s="142"/>
-      <c r="AK32" s="143"/>
+      <c r="AJ32" s="144"/>
+      <c r="AK32" s="141"/>
       <c r="AL32" s="41"/>
       <c r="AM32" s="41"/>
       <c r="AN32" s="41"/>
@@ -4645,15 +4163,15 @@
       </c>
       <c r="I33" s="108"/>
       <c r="J33" s="109"/>
-      <c r="K33" s="141" t="s">
+      <c r="K33" s="140" t="s">
         <v>106</v>
       </c>
-      <c r="L33" s="142"/>
-      <c r="M33" s="143"/>
-      <c r="N33" s="142" t="s">
+      <c r="L33" s="144"/>
+      <c r="M33" s="141"/>
+      <c r="N33" s="144" t="s">
         <v>123</v>
       </c>
-      <c r="O33" s="143"/>
+      <c r="O33" s="141"/>
       <c r="P33" s="107"/>
       <c r="Q33" s="108"/>
       <c r="R33" s="109"/>
@@ -4672,15 +4190,15 @@
       </c>
       <c r="AE33" s="41"/>
       <c r="AF33" s="41"/>
-      <c r="AG33" s="141" t="s">
+      <c r="AG33" s="140" t="s">
         <v>128</v>
       </c>
-      <c r="AH33" s="143"/>
-      <c r="AI33" s="142" t="s">
+      <c r="AH33" s="141"/>
+      <c r="AI33" s="144" t="s">
         <v>129</v>
       </c>
-      <c r="AJ33" s="142"/>
-      <c r="AK33" s="143"/>
+      <c r="AJ33" s="144"/>
+      <c r="AK33" s="141"/>
       <c r="AL33" s="41"/>
       <c r="AM33" s="41"/>
       <c r="AN33" s="41"/>
@@ -4732,15 +4250,15 @@
       </c>
       <c r="AE34" s="41"/>
       <c r="AF34" s="41"/>
-      <c r="AG34" s="141" t="s">
+      <c r="AG34" s="140" t="s">
         <v>101</v>
       </c>
-      <c r="AH34" s="143"/>
-      <c r="AI34" s="142" t="s">
+      <c r="AH34" s="141"/>
+      <c r="AI34" s="144" t="s">
         <v>100</v>
       </c>
-      <c r="AJ34" s="142"/>
-      <c r="AK34" s="143"/>
+      <c r="AJ34" s="144"/>
+      <c r="AK34" s="141"/>
       <c r="AL34" s="41"/>
       <c r="AM34" s="41"/>
       <c r="AN34" s="41"/>
@@ -4761,15 +4279,15 @@
       </c>
       <c r="I35" s="209"/>
       <c r="J35" s="210"/>
-      <c r="K35" s="141" t="s">
+      <c r="K35" s="140" t="s">
         <v>106</v>
       </c>
-      <c r="L35" s="142"/>
-      <c r="M35" s="143"/>
-      <c r="N35" s="142" t="s">
+      <c r="L35" s="144"/>
+      <c r="M35" s="141"/>
+      <c r="N35" s="144" t="s">
         <v>123</v>
       </c>
-      <c r="O35" s="143"/>
+      <c r="O35" s="141"/>
       <c r="P35" s="107"/>
       <c r="Q35" s="108"/>
       <c r="R35" s="109"/>
@@ -4783,26 +4301,26 @@
       <c r="AA35" s="87"/>
       <c r="AB35" s="87"/>
       <c r="AC35" s="87"/>
-      <c r="AD35" s="194" t="s">
+      <c r="AD35" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="AE35" s="194"/>
-      <c r="AF35" s="194"/>
-      <c r="AG35" s="141" t="s">
+      <c r="AE35" s="139"/>
+      <c r="AF35" s="139"/>
+      <c r="AG35" s="140" t="s">
         <v>128</v>
       </c>
-      <c r="AH35" s="143"/>
-      <c r="AI35" s="142" t="s">
+      <c r="AH35" s="141"/>
+      <c r="AI35" s="144" t="s">
         <v>129</v>
       </c>
-      <c r="AJ35" s="142"/>
-      <c r="AK35" s="143"/>
-      <c r="AL35" s="194"/>
-      <c r="AM35" s="194"/>
-      <c r="AN35" s="194"/>
-      <c r="AO35" s="194"/>
-      <c r="AP35" s="194"/>
-      <c r="AQ35" s="194"/>
+      <c r="AJ35" s="144"/>
+      <c r="AK35" s="141"/>
+      <c r="AL35" s="139"/>
+      <c r="AM35" s="139"/>
+      <c r="AN35" s="139"/>
+      <c r="AO35" s="139"/>
+      <c r="AP35" s="139"/>
+      <c r="AQ35" s="139"/>
     </row>
     <row r="36" spans="1:43" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="94" t="s">
@@ -4882,15 +4400,15 @@
       </c>
       <c r="I37" s="209"/>
       <c r="J37" s="210"/>
-      <c r="K37" s="141" t="s">
+      <c r="K37" s="140" t="s">
         <v>109</v>
       </c>
-      <c r="L37" s="142"/>
-      <c r="M37" s="143"/>
-      <c r="N37" s="142" t="s">
+      <c r="L37" s="144"/>
+      <c r="M37" s="141"/>
+      <c r="N37" s="144" t="s">
         <v>124</v>
       </c>
-      <c r="O37" s="143"/>
+      <c r="O37" s="141"/>
       <c r="P37" s="107"/>
       <c r="Q37" s="108"/>
       <c r="R37" s="109"/>
@@ -4933,15 +4451,15 @@
       <c r="H38" s="86"/>
       <c r="I38" s="86"/>
       <c r="J38" s="86"/>
-      <c r="K38" s="141" t="s">
+      <c r="K38" s="140" t="s">
         <v>109</v>
       </c>
-      <c r="L38" s="142"/>
-      <c r="M38" s="143"/>
-      <c r="N38" s="142" t="s">
+      <c r="L38" s="144"/>
+      <c r="M38" s="141"/>
+      <c r="N38" s="144" t="s">
         <v>124</v>
       </c>
-      <c r="O38" s="143"/>
+      <c r="O38" s="141"/>
       <c r="P38" s="107"/>
       <c r="Q38" s="108"/>
       <c r="R38" s="109"/>
@@ -4984,15 +4502,15 @@
       <c r="H39" s="200"/>
       <c r="I39" s="200"/>
       <c r="J39" s="200"/>
-      <c r="K39" s="141" t="s">
+      <c r="K39" s="140" t="s">
         <v>106</v>
       </c>
-      <c r="L39" s="142"/>
-      <c r="M39" s="143"/>
-      <c r="N39" s="142" t="s">
+      <c r="L39" s="144"/>
+      <c r="M39" s="141"/>
+      <c r="N39" s="144" t="s">
         <v>123</v>
       </c>
-      <c r="O39" s="143"/>
+      <c r="O39" s="141"/>
       <c r="P39" s="107"/>
       <c r="Q39" s="108"/>
       <c r="R39" s="109"/>
@@ -5127,12 +4645,12 @@
       <c r="AQ41" s="220"/>
     </row>
     <row r="42" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="144" t="s">
+      <c r="A42" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="145"/>
-      <c r="C42" s="145"/>
-      <c r="D42" s="146"/>
+      <c r="B42" s="146"/>
+      <c r="C42" s="146"/>
+      <c r="D42" s="147"/>
       <c r="E42" s="94">
         <v>8</v>
       </c>
@@ -5143,15 +4661,15 @@
       </c>
       <c r="I42" s="108"/>
       <c r="J42" s="109"/>
-      <c r="K42" s="141" t="s">
+      <c r="K42" s="140" t="s">
         <v>105</v>
       </c>
-      <c r="L42" s="142"/>
-      <c r="M42" s="143"/>
-      <c r="N42" s="142" t="s">
+      <c r="L42" s="144"/>
+      <c r="M42" s="141"/>
+      <c r="N42" s="144" t="s">
         <v>115</v>
       </c>
-      <c r="O42" s="143"/>
+      <c r="O42" s="141"/>
       <c r="P42" s="32"/>
       <c r="Q42" s="54"/>
       <c r="R42" s="33"/>
@@ -5182,10 +4700,10 @@
       <c r="AQ42" s="220"/>
     </row>
     <row r="43" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="147"/>
-      <c r="B43" s="148"/>
-      <c r="C43" s="148"/>
-      <c r="D43" s="149"/>
+      <c r="A43" s="148"/>
+      <c r="B43" s="149"/>
+      <c r="C43" s="149"/>
+      <c r="D43" s="150"/>
       <c r="E43" s="100"/>
       <c r="F43" s="101"/>
       <c r="G43" s="102"/>
@@ -5194,15 +4712,15 @@
       </c>
       <c r="I43" s="108"/>
       <c r="J43" s="109"/>
-      <c r="K43" s="141" t="s">
+      <c r="K43" s="140" t="s">
         <v>111</v>
       </c>
-      <c r="L43" s="142"/>
-      <c r="M43" s="143"/>
-      <c r="N43" s="142" t="s">
+      <c r="L43" s="144"/>
+      <c r="M43" s="141"/>
+      <c r="N43" s="144" t="s">
         <v>116</v>
       </c>
-      <c r="O43" s="143"/>
+      <c r="O43" s="141"/>
       <c r="P43" s="107"/>
       <c r="Q43" s="108"/>
       <c r="R43" s="109"/>
@@ -5250,16 +4768,16 @@
       <c r="I44" s="118"/>
       <c r="J44" s="118"/>
       <c r="K44" s="122"/>
-      <c r="L44" s="164" t="s">
+      <c r="L44" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="M44" s="164"/>
-      <c r="N44" s="164" t="s">
+      <c r="M44" s="171"/>
+      <c r="N44" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="O44" s="164"/>
-      <c r="P44" s="164"/>
-      <c r="Q44" s="164"/>
+      <c r="O44" s="171"/>
+      <c r="P44" s="171"/>
+      <c r="Q44" s="171"/>
       <c r="R44" s="4"/>
       <c r="S44" s="8"/>
       <c r="T44" s="8"/>
@@ -5299,12 +4817,12 @@
       <c r="I45" s="120"/>
       <c r="J45" s="120"/>
       <c r="K45" s="123"/>
-      <c r="L45" s="165"/>
-      <c r="M45" s="165"/>
-      <c r="N45" s="165"/>
-      <c r="O45" s="165"/>
-      <c r="P45" s="165"/>
-      <c r="Q45" s="165"/>
+      <c r="L45" s="152"/>
+      <c r="M45" s="152"/>
+      <c r="N45" s="152"/>
+      <c r="O45" s="152"/>
+      <c r="P45" s="152"/>
+      <c r="Q45" s="152"/>
       <c r="R45" s="4"/>
       <c r="S45" s="8"/>
       <c r="T45" s="8"/>
@@ -5333,7 +4851,7 @@
       <c r="AQ45" s="5"/>
     </row>
     <row r="46" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="166">
+      <c r="A46" s="172">
         <v>1</v>
       </c>
       <c r="B46" s="124" t="s">
@@ -5384,7 +4902,7 @@
       <c r="AQ46" s="5"/>
     </row>
     <row r="47" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="167"/>
+      <c r="A47" s="173"/>
       <c r="B47" s="126"/>
       <c r="C47" s="127"/>
       <c r="D47" s="127"/>
@@ -5429,7 +4947,7 @@
       <c r="AQ47" s="5"/>
     </row>
     <row r="48" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="166">
+      <c r="A48" s="172">
         <v>2</v>
       </c>
       <c r="B48" s="124" t="s">
@@ -5480,7 +4998,7 @@
       <c r="AQ48" s="5"/>
     </row>
     <row r="49" spans="1:43" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="167"/>
+      <c r="A49" s="173"/>
       <c r="B49" s="126"/>
       <c r="C49" s="127"/>
       <c r="D49" s="127"/>
@@ -5525,7 +5043,7 @@
       <c r="AQ49" s="5"/>
     </row>
     <row r="50" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="166">
+      <c r="A50" s="172">
         <v>3</v>
       </c>
       <c r="B50" s="124" t="s">
@@ -5576,7 +5094,7 @@
       <c r="AQ50" s="5"/>
     </row>
     <row r="51" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="167"/>
+      <c r="A51" s="173"/>
       <c r="B51" s="126"/>
       <c r="C51" s="127"/>
       <c r="D51" s="127"/>
@@ -5621,7 +5139,7 @@
       <c r="AQ51" s="5"/>
     </row>
     <row r="52" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="166">
+      <c r="A52" s="172">
         <v>4</v>
       </c>
       <c r="B52" s="124" t="s">
@@ -5672,17 +5190,17 @@
       <c r="AQ52" s="5"/>
     </row>
     <row r="53" spans="1:43" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="189"/>
-      <c r="B53" s="184"/>
-      <c r="C53" s="185"/>
-      <c r="D53" s="185"/>
-      <c r="E53" s="185"/>
-      <c r="F53" s="185"/>
-      <c r="G53" s="185"/>
-      <c r="H53" s="190"/>
-      <c r="I53" s="191"/>
-      <c r="J53" s="191"/>
-      <c r="K53" s="192"/>
+      <c r="A53" s="190"/>
+      <c r="B53" s="153"/>
+      <c r="C53" s="154"/>
+      <c r="D53" s="154"/>
+      <c r="E53" s="154"/>
+      <c r="F53" s="154"/>
+      <c r="G53" s="154"/>
+      <c r="H53" s="191"/>
+      <c r="I53" s="192"/>
+      <c r="J53" s="192"/>
+      <c r="K53" s="193"/>
       <c r="L53" s="51"/>
       <c r="M53" s="53"/>
       <c r="N53" s="51"/>
@@ -5717,7 +5235,7 @@
       <c r="AQ53" s="5"/>
     </row>
     <row r="54" spans="1:43" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="189"/>
+      <c r="A54" s="190"/>
       <c r="B54" s="126"/>
       <c r="C54" s="127"/>
       <c r="D54" s="127"/>
@@ -5779,16 +5297,16 @@
       <c r="I55" s="118"/>
       <c r="J55" s="118"/>
       <c r="K55" s="122"/>
-      <c r="L55" s="165" t="s">
+      <c r="L55" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="M55" s="165"/>
-      <c r="N55" s="165" t="s">
+      <c r="M55" s="152"/>
+      <c r="N55" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="O55" s="165"/>
-      <c r="P55" s="165"/>
-      <c r="Q55" s="165"/>
+      <c r="O55" s="152"/>
+      <c r="P55" s="152"/>
+      <c r="Q55" s="152"/>
       <c r="R55" s="10"/>
       <c r="S55" s="10"/>
       <c r="T55" s="10"/>
@@ -5824,16 +5342,16 @@
       <c r="E56" s="113"/>
       <c r="F56" s="114"/>
       <c r="G56" s="14"/>
-      <c r="H56" s="186"/>
-      <c r="I56" s="187"/>
-      <c r="J56" s="187"/>
-      <c r="K56" s="188"/>
-      <c r="L56" s="165"/>
-      <c r="M56" s="165"/>
-      <c r="N56" s="165"/>
-      <c r="O56" s="165"/>
-      <c r="P56" s="165"/>
-      <c r="Q56" s="165"/>
+      <c r="H56" s="155"/>
+      <c r="I56" s="156"/>
+      <c r="J56" s="156"/>
+      <c r="K56" s="157"/>
+      <c r="L56" s="152"/>
+      <c r="M56" s="152"/>
+      <c r="N56" s="152"/>
+      <c r="O56" s="152"/>
+      <c r="P56" s="152"/>
+      <c r="Q56" s="152"/>
       <c r="R56" s="8"/>
       <c r="S56" s="8"/>
       <c r="T56" s="8"/>
@@ -5862,7 +5380,7 @@
       <c r="AQ56" s="5"/>
     </row>
     <row r="57" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="193">
+      <c r="A57" s="194">
         <v>1</v>
       </c>
       <c r="B57" s="124" t="s">
@@ -5872,19 +5390,19 @@
       <c r="D57" s="125"/>
       <c r="E57" s="125"/>
       <c r="F57" s="125"/>
-      <c r="G57" s="139"/>
+      <c r="G57" s="142"/>
       <c r="H57" s="55" t="s">
         <v>85</v>
       </c>
       <c r="I57" s="56"/>
       <c r="J57" s="56"/>
       <c r="K57" s="57"/>
-      <c r="L57" s="159"/>
-      <c r="M57" s="160"/>
-      <c r="N57" s="150"/>
-      <c r="O57" s="151"/>
-      <c r="P57" s="151"/>
-      <c r="Q57" s="152"/>
+      <c r="L57" s="167"/>
+      <c r="M57" s="151"/>
+      <c r="N57" s="158"/>
+      <c r="O57" s="159"/>
+      <c r="P57" s="159"/>
+      <c r="Q57" s="160"/>
       <c r="R57" s="8"/>
       <c r="S57" s="8"/>
       <c r="T57" s="8"/>
@@ -5913,23 +5431,23 @@
       <c r="AQ57" s="5"/>
     </row>
     <row r="58" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="163"/>
+      <c r="A58" s="170"/>
       <c r="B58" s="126"/>
       <c r="C58" s="127"/>
       <c r="D58" s="127"/>
       <c r="E58" s="127"/>
       <c r="F58" s="127"/>
-      <c r="G58" s="140"/>
+      <c r="G58" s="143"/>
       <c r="H58" s="58"/>
       <c r="I58" s="59"/>
       <c r="J58" s="59"/>
       <c r="K58" s="60"/>
-      <c r="L58" s="159"/>
-      <c r="M58" s="160"/>
-      <c r="N58" s="153"/>
-      <c r="O58" s="154"/>
-      <c r="P58" s="154"/>
-      <c r="Q58" s="155"/>
+      <c r="L58" s="167"/>
+      <c r="M58" s="151"/>
+      <c r="N58" s="161"/>
+      <c r="O58" s="162"/>
+      <c r="P58" s="162"/>
+      <c r="Q58" s="163"/>
       <c r="R58" s="8"/>
       <c r="S58" s="8"/>
       <c r="T58" s="8"/>
@@ -5958,7 +5476,7 @@
       <c r="AQ58" s="5"/>
     </row>
     <row r="59" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="162">
+      <c r="A59" s="169">
         <v>2</v>
       </c>
       <c r="B59" s="124" t="s">
@@ -5968,19 +5486,19 @@
       <c r="D59" s="125"/>
       <c r="E59" s="125"/>
       <c r="F59" s="125"/>
-      <c r="G59" s="139"/>
+      <c r="G59" s="142"/>
       <c r="H59" s="55" t="s">
         <v>85</v>
       </c>
       <c r="I59" s="56"/>
       <c r="J59" s="56"/>
       <c r="K59" s="57"/>
-      <c r="L59" s="160"/>
-      <c r="M59" s="160"/>
-      <c r="N59" s="153"/>
-      <c r="O59" s="154"/>
-      <c r="P59" s="154"/>
-      <c r="Q59" s="155"/>
+      <c r="L59" s="151"/>
+      <c r="M59" s="151"/>
+      <c r="N59" s="161"/>
+      <c r="O59" s="162"/>
+      <c r="P59" s="162"/>
+      <c r="Q59" s="163"/>
       <c r="R59" s="8"/>
       <c r="S59" s="8"/>
       <c r="T59" s="8"/>
@@ -6009,23 +5527,23 @@
       <c r="AQ59" s="5"/>
     </row>
     <row r="60" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="163"/>
+      <c r="A60" s="170"/>
       <c r="B60" s="126"/>
       <c r="C60" s="127"/>
       <c r="D60" s="127"/>
       <c r="E60" s="127"/>
       <c r="F60" s="127"/>
-      <c r="G60" s="140"/>
+      <c r="G60" s="143"/>
       <c r="H60" s="58"/>
       <c r="I60" s="59"/>
       <c r="J60" s="59"/>
       <c r="K60" s="60"/>
-      <c r="L60" s="160"/>
-      <c r="M60" s="160"/>
-      <c r="N60" s="153"/>
-      <c r="O60" s="154"/>
-      <c r="P60" s="154"/>
-      <c r="Q60" s="155"/>
+      <c r="L60" s="151"/>
+      <c r="M60" s="151"/>
+      <c r="N60" s="161"/>
+      <c r="O60" s="162"/>
+      <c r="P60" s="162"/>
+      <c r="Q60" s="163"/>
       <c r="R60" s="8"/>
       <c r="S60" s="8"/>
       <c r="T60" s="8"/>
@@ -6054,7 +5572,7 @@
       <c r="AQ60" s="5"/>
     </row>
     <row r="61" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="162">
+      <c r="A61" s="169">
         <v>3</v>
       </c>
       <c r="B61" s="124" t="s">
@@ -6064,19 +5582,19 @@
       <c r="D61" s="125"/>
       <c r="E61" s="125"/>
       <c r="F61" s="125"/>
-      <c r="G61" s="139"/>
+      <c r="G61" s="142"/>
       <c r="H61" s="55" t="s">
         <v>85</v>
       </c>
       <c r="I61" s="56"/>
       <c r="J61" s="56"/>
       <c r="K61" s="57"/>
-      <c r="L61" s="160"/>
-      <c r="M61" s="160"/>
-      <c r="N61" s="153"/>
-      <c r="O61" s="154"/>
-      <c r="P61" s="154"/>
-      <c r="Q61" s="155"/>
+      <c r="L61" s="151"/>
+      <c r="M61" s="151"/>
+      <c r="N61" s="161"/>
+      <c r="O61" s="162"/>
+      <c r="P61" s="162"/>
+      <c r="Q61" s="163"/>
       <c r="R61" s="8"/>
       <c r="S61" s="8"/>
       <c r="T61" s="8"/>
@@ -6105,23 +5623,23 @@
       <c r="AQ61" s="5"/>
     </row>
     <row r="62" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="163"/>
+      <c r="A62" s="170"/>
       <c r="B62" s="126"/>
       <c r="C62" s="127"/>
       <c r="D62" s="127"/>
       <c r="E62" s="127"/>
       <c r="F62" s="127"/>
-      <c r="G62" s="140"/>
+      <c r="G62" s="143"/>
       <c r="H62" s="58"/>
       <c r="I62" s="59"/>
       <c r="J62" s="59"/>
       <c r="K62" s="60"/>
-      <c r="L62" s="160"/>
-      <c r="M62" s="160"/>
-      <c r="N62" s="153"/>
-      <c r="O62" s="154"/>
-      <c r="P62" s="154"/>
-      <c r="Q62" s="155"/>
+      <c r="L62" s="151"/>
+      <c r="M62" s="151"/>
+      <c r="N62" s="161"/>
+      <c r="O62" s="162"/>
+      <c r="P62" s="162"/>
+      <c r="Q62" s="163"/>
       <c r="R62" s="8"/>
       <c r="S62" s="8"/>
       <c r="T62" s="8"/>
@@ -6150,7 +5668,7 @@
       <c r="AQ62" s="5"/>
     </row>
     <row r="63" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="166">
+      <c r="A63" s="172">
         <v>4</v>
       </c>
       <c r="B63" s="124" t="s">
@@ -6160,19 +5678,19 @@
       <c r="D63" s="125"/>
       <c r="E63" s="125"/>
       <c r="F63" s="125"/>
-      <c r="G63" s="139"/>
+      <c r="G63" s="142"/>
       <c r="H63" s="55" t="s">
         <v>85</v>
       </c>
       <c r="I63" s="56"/>
       <c r="J63" s="56"/>
       <c r="K63" s="57"/>
-      <c r="L63" s="150"/>
-      <c r="M63" s="152"/>
-      <c r="N63" s="153"/>
-      <c r="O63" s="154"/>
-      <c r="P63" s="154"/>
-      <c r="Q63" s="155"/>
+      <c r="L63" s="158"/>
+      <c r="M63" s="160"/>
+      <c r="N63" s="161"/>
+      <c r="O63" s="162"/>
+      <c r="P63" s="162"/>
+      <c r="Q63" s="163"/>
       <c r="R63" s="8"/>
       <c r="S63" s="8"/>
       <c r="T63" s="8"/>
@@ -6201,23 +5719,23 @@
       <c r="AQ63" s="5"/>
     </row>
     <row r="64" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="167"/>
+      <c r="A64" s="173"/>
       <c r="B64" s="126"/>
       <c r="C64" s="127"/>
       <c r="D64" s="127"/>
       <c r="E64" s="127"/>
       <c r="F64" s="127"/>
-      <c r="G64" s="140"/>
+      <c r="G64" s="143"/>
       <c r="H64" s="58"/>
       <c r="I64" s="59"/>
       <c r="J64" s="59"/>
       <c r="K64" s="60"/>
-      <c r="L64" s="156"/>
-      <c r="M64" s="158"/>
-      <c r="N64" s="153"/>
-      <c r="O64" s="154"/>
-      <c r="P64" s="154"/>
-      <c r="Q64" s="155"/>
+      <c r="L64" s="164"/>
+      <c r="M64" s="166"/>
+      <c r="N64" s="161"/>
+      <c r="O64" s="162"/>
+      <c r="P64" s="162"/>
+      <c r="Q64" s="163"/>
       <c r="R64" s="8"/>
       <c r="S64" s="8"/>
       <c r="T64" s="8"/>
@@ -6246,7 +5764,7 @@
       <c r="AQ64" s="5"/>
     </row>
     <row r="65" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="162">
+      <c r="A65" s="169">
         <v>5</v>
       </c>
       <c r="B65" s="124" t="s">
@@ -6256,19 +5774,19 @@
       <c r="D65" s="125"/>
       <c r="E65" s="125"/>
       <c r="F65" s="125"/>
-      <c r="G65" s="139"/>
+      <c r="G65" s="142"/>
       <c r="H65" s="55" t="s">
         <v>85</v>
       </c>
       <c r="I65" s="56"/>
       <c r="J65" s="56"/>
       <c r="K65" s="57"/>
-      <c r="L65" s="160"/>
-      <c r="M65" s="160"/>
-      <c r="N65" s="153"/>
-      <c r="O65" s="154"/>
-      <c r="P65" s="154"/>
-      <c r="Q65" s="155"/>
+      <c r="L65" s="151"/>
+      <c r="M65" s="151"/>
+      <c r="N65" s="161"/>
+      <c r="O65" s="162"/>
+      <c r="P65" s="162"/>
+      <c r="Q65" s="163"/>
       <c r="R65" s="8"/>
       <c r="S65" s="8"/>
       <c r="T65" s="8"/>
@@ -6297,23 +5815,23 @@
       <c r="AQ65" s="5"/>
     </row>
     <row r="66" spans="1:43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="163"/>
+      <c r="A66" s="170"/>
       <c r="B66" s="126"/>
       <c r="C66" s="127"/>
       <c r="D66" s="127"/>
       <c r="E66" s="127"/>
       <c r="F66" s="127"/>
-      <c r="G66" s="140"/>
+      <c r="G66" s="143"/>
       <c r="H66" s="58"/>
       <c r="I66" s="59"/>
       <c r="J66" s="59"/>
       <c r="K66" s="60"/>
-      <c r="L66" s="160"/>
-      <c r="M66" s="160"/>
-      <c r="N66" s="156"/>
-      <c r="O66" s="157"/>
-      <c r="P66" s="157"/>
-      <c r="Q66" s="158"/>
+      <c r="L66" s="151"/>
+      <c r="M66" s="151"/>
+      <c r="N66" s="164"/>
+      <c r="O66" s="165"/>
+      <c r="P66" s="165"/>
+      <c r="Q66" s="166"/>
       <c r="R66" s="9"/>
       <c r="S66" s="9"/>
       <c r="T66" s="9"/>
@@ -13233,6 +12751,7 @@
     <mergeCell ref="AD27:AF27"/>
     <mergeCell ref="AD25:AF25"/>
     <mergeCell ref="W26:Z27"/>
+    <mergeCell ref="W28:Z31"/>
     <mergeCell ref="AG35:AH35"/>
     <mergeCell ref="S35:U35"/>
     <mergeCell ref="AD35:AF35"/>
@@ -13318,7 +12837,9 @@
     <mergeCell ref="AI28:AK28"/>
     <mergeCell ref="AI29:AK29"/>
     <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AL26:AN26"/>
+    <mergeCell ref="AL27:AN27"/>
+    <mergeCell ref="AL28:AN28"/>
     <mergeCell ref="AI34:AK34"/>
     <mergeCell ref="AG34:AH34"/>
     <mergeCell ref="AO31:AQ31"/>
@@ -13330,10 +12851,7 @@
     <mergeCell ref="AG30:AH30"/>
     <mergeCell ref="AL32:AN32"/>
     <mergeCell ref="AL33:AN33"/>
-    <mergeCell ref="AL26:AN26"/>
-    <mergeCell ref="AL27:AN27"/>
-    <mergeCell ref="AL28:AN28"/>
-    <mergeCell ref="AL35:AN35"/>
+    <mergeCell ref="AG31:AH31"/>
     <mergeCell ref="AO30:AQ30"/>
     <mergeCell ref="AO25:AQ25"/>
     <mergeCell ref="AO26:AQ26"/>
@@ -13413,7 +12931,6 @@
     <mergeCell ref="H57:K58"/>
     <mergeCell ref="H59:K60"/>
     <mergeCell ref="H61:K62"/>
-    <mergeCell ref="W28:Z31"/>
     <mergeCell ref="W32:Z35"/>
     <mergeCell ref="A40:D41"/>
     <mergeCell ref="H40:J41"/>
@@ -13435,8 +12952,9 @@
     <mergeCell ref="AO36:AQ37"/>
     <mergeCell ref="AA36:AC37"/>
     <mergeCell ref="AO35:AQ35"/>
-    <mergeCell ref="AG31:AH31"/>
     <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="AL35:AN35"/>
+    <mergeCell ref="AG33:AH33"/>
     <mergeCell ref="A67:Q67"/>
     <mergeCell ref="R67:AQ67"/>
     <mergeCell ref="A68:A69"/>
@@ -17219,8 +16737,6 @@
     <mergeCell ref="L56:M57"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="B58:G59"/>
-    <mergeCell ref="B50:G51"/>
-    <mergeCell ref="H50:K51"/>
     <mergeCell ref="L50:M51"/>
     <mergeCell ref="B40:G41"/>
     <mergeCell ref="H40:K41"/>
@@ -17246,6 +16762,8 @@
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="H24:K25"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:G45"/>
     <mergeCell ref="L6:M7"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="B38:G39"/>
@@ -17270,8 +16788,6 @@
     <mergeCell ref="L10:M11"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:G45"/>
     <mergeCell ref="AG64:AQ69"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A28:A29"/>
@@ -17294,6 +16810,8 @@
     <mergeCell ref="H48:K49"/>
     <mergeCell ref="L48:M49"/>
     <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:G51"/>
+    <mergeCell ref="H50:K51"/>
     <mergeCell ref="R1:AQ1"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="L2:M3"/>
